--- a/3_output/sensitivity_hwws/alt_cut/metareg_hw_s3.xlsx
+++ b/3_output/sensitivity_hwws/alt_cut/metareg_hw_s3.xlsx
@@ -2277,44 +2277,44 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>54.163152925409364</v>
+        <v>63.108450385719259</v>
       </c>
       <c r="B2">
-        <v>89.894852488343531</v>
+        <v>72.516886656894584</v>
       </c>
       <c r="C2">
-        <v>64.009536736234509</v>
+        <v>71.267393880126605</v>
       </c>
       <c r="D2">
-        <v>89.206998876987015</v>
+        <v>66.438480942832996</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.0011181301172552001</v>
+        <v>0.0027027386244777999</v>
       </c>
       <c r="B3">
-        <v>0.18938923374511271</v>
+        <v>0.0141669813937053</v>
       </c>
       <c r="C3">
-        <v>0.011447636543371199</v>
+        <v>0.022254929270747501</v>
       </c>
       <c r="D3">
-        <v>0.091954770465903002</v>
+        <v>0.0032371010856844002</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>73.765024139619001</v>
+        <v>78.238519169724668</v>
       </c>
       <c r="B4">
-        <v>90.835919259031499</v>
+        <v>79.487992516267411</v>
       </c>
       <c r="C4">
-        <v>73.765024139619001</v>
+        <v>78.238519169724668</v>
       </c>
       <c r="D4">
-        <v>90.835919259031499</v>
+        <v>79.487992516267411</v>
       </c>
     </row>
     <row r="6">
@@ -2325,10 +2325,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>0.24398955741770623</v>
+        <v>0.26347061096210839</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.27791586919258332</v>
+        <v>-0.28864020634560456</v>
       </c>
       <c r="H6" s="37" t="s">
         <v>1</v>
@@ -2337,10 +2337,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="39">
-        <v>0.20277176796936758</v>
+        <v>0.29759814587057876</v>
       </c>
       <c r="K6" s="40">
-        <v>-0.3939945560126073</v>
+        <v>-0.38552540621087139</v>
       </c>
       <c r="N6" s="73" t="s">
         <v>1</v>
@@ -2349,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="75">
-        <v>0.2205190849546374</v>
+        <v>0.22977165950005399</v>
       </c>
       <c r="Q6" s="76">
-        <v>-0.27857220625871859</v>
+        <v>-0.28522445436878963</v>
       </c>
       <c r="T6" s="109" t="s">
         <v>1</v>
@@ -2361,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="V6" s="111">
-        <v>0.25070559298590472</v>
+        <v>0.31552944902464281</v>
       </c>
       <c r="W6" s="112">
-        <v>-0.453937570727942</v>
+        <v>-0.45522978090740485</v>
       </c>
     </row>
     <row r="7">
@@ -2373,40 +2373,40 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7">
-        <v>0.074866815738476117</v>
+        <v>0.087833251749097799</v>
       </c>
       <c r="E7" s="8">
-        <v>0.059588667609896305</v>
+        <v>0.065748217116747276</v>
       </c>
       <c r="H7" s="41" t="s">
         <v>2</v>
       </c>
       <c r="I7" s="42"/>
       <c r="J7" s="43">
-        <v>0.15450595314072027</v>
+        <v>0.12132000987911037</v>
       </c>
       <c r="K7" s="44">
-        <v>0.10928369760826491</v>
+        <v>0.076412126373524056</v>
       </c>
       <c r="N7" s="77" t="s">
         <v>2</v>
       </c>
       <c r="O7" s="78"/>
       <c r="P7" s="79">
-        <v>0.087205501710295827</v>
+        <v>0.10051304104872816</v>
       </c>
       <c r="Q7" s="80">
-        <v>0.071495413589831927</v>
+        <v>0.077842397670634139</v>
       </c>
       <c r="T7" s="113" t="s">
         <v>2</v>
       </c>
       <c r="U7" s="114"/>
       <c r="V7" s="115">
-        <v>0.14877123161762249</v>
+        <v>0.10716703846789623</v>
       </c>
       <c r="W7" s="116">
-        <v>0.1195466461109649</v>
+        <v>0.083115557306354823</v>
       </c>
     </row>
     <row r="8">
@@ -2415,40 +2415,40 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="11">
-        <v>3.2589813659232907</v>
+        <v>2.9996681861982264</v>
       </c>
       <c r="E8" s="12">
-        <v>-4.6639047379275169</v>
+        <v>-4.3900841574620069</v>
       </c>
       <c r="H8" s="45" t="s">
         <v>3</v>
       </c>
       <c r="I8" s="46"/>
       <c r="J8" s="47">
-        <v>1.3123880591493324</v>
+        <v>2.4530013323203748</v>
       </c>
       <c r="K8" s="48">
-        <v>-3.6052454724300094</v>
+        <v>-5.0453432525397126</v>
       </c>
       <c r="N8" s="81" t="s">
         <v>3</v>
       </c>
       <c r="O8" s="82"/>
       <c r="P8" s="83">
-        <v>2.5287290438075885</v>
+        <v>2.2859885354444902</v>
       </c>
       <c r="Q8" s="84">
-        <v>-3.8963647074885528</v>
+        <v>-3.6641272995678791</v>
       </c>
       <c r="T8" s="117" t="s">
         <v>3</v>
       </c>
       <c r="U8" s="118"/>
       <c r="V8" s="119">
-        <v>1.6851752201008716</v>
+        <v>2.9442770233793967</v>
       </c>
       <c r="W8" s="120">
-        <v>-3.7971585610740655</v>
+        <v>-5.4770706671613576</v>
       </c>
     </row>
     <row r="9">
@@ -2457,40 +2457,40 @@
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="15">
-        <v>0.0011181301172552278</v>
+        <v>0.0027027386244777595</v>
       </c>
       <c r="E9" s="16">
-        <v>3.1026505270038893e-06</v>
+        <v>1.1330680078622752e-05</v>
       </c>
       <c r="H9" s="49" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="50"/>
       <c r="J9" s="51">
-        <v>0.18938923374511274</v>
+        <v>0.01416698139370532</v>
       </c>
       <c r="K9" s="52">
-        <v>0.00031185801149548575</v>
+        <v>4.5270789941763847e-07</v>
       </c>
       <c r="N9" s="85" t="s">
         <v>4</v>
       </c>
       <c r="O9" s="86"/>
       <c r="P9" s="87">
-        <v>0.011447636543371218</v>
+        <v>0.022254929270747528</v>
       </c>
       <c r="Q9" s="88">
-        <v>9.7647313551174142e-05</v>
+        <v>0.00024818333515643773</v>
       </c>
       <c r="T9" s="121" t="s">
         <v>4</v>
       </c>
       <c r="U9" s="122"/>
       <c r="V9" s="123">
-        <v>0.09195477046590303</v>
+        <v>0.0032371010856844205</v>
       </c>
       <c r="W9" s="124">
-        <v>0.00014636417367561549</v>
+        <v>4.3242455725359385e-08</v>
       </c>
     </row>
     <row r="10">
@@ -2499,40 +2499,40 @@
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="19">
-        <v>0.097253294933096562</v>
+        <v>0.091320600888837006</v>
       </c>
       <c r="E10" s="20">
-        <v>-0.39470751159470852</v>
+        <v>-0.41750434394214908</v>
       </c>
       <c r="H10" s="53" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="54"/>
       <c r="J10" s="55">
-        <v>-0.10005433558347737</v>
+        <v>0.059815295903478893</v>
       </c>
       <c r="K10" s="56">
-        <v>-0.60818666742217253</v>
+        <v>-0.53529042188510179</v>
       </c>
       <c r="N10" s="89" t="s">
         <v>5</v>
       </c>
       <c r="O10" s="90"/>
       <c r="P10" s="91">
-        <v>0.049599442348711526</v>
+        <v>0.032769719067950759</v>
       </c>
       <c r="Q10" s="92">
-        <v>-0.41870064195458467</v>
+        <v>-0.43779275027347708</v>
       </c>
       <c r="T10" s="125" t="s">
         <v>5</v>
       </c>
       <c r="U10" s="126"/>
       <c r="V10" s="127">
-        <v>-0.040880662920301902</v>
+        <v>0.1054859132977477</v>
       </c>
       <c r="W10" s="128">
-        <v>-0.68824469157798851</v>
+        <v>-0.61813327978283517</v>
       </c>
     </row>
     <row r="11">
@@ -2541,40 +2541,40 @@
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="23">
-        <v>0.39072581990231592</v>
+        <v>0.4356206210353798</v>
       </c>
       <c r="E11" s="24">
-        <v>-0.16112422679045812</v>
+        <v>-0.15977606874906</v>
       </c>
       <c r="H11" s="57" t="s">
         <v>6</v>
       </c>
       <c r="I11" s="58"/>
       <c r="J11" s="59">
-        <v>0.50559787152221247</v>
+        <v>0.53538099583767862</v>
       </c>
       <c r="K11" s="60">
-        <v>-0.17980244460304207</v>
+        <v>-0.23576039053664105</v>
       </c>
       <c r="N11" s="93" t="s">
         <v>6</v>
       </c>
       <c r="O11" s="94"/>
       <c r="P11" s="95">
-        <v>0.39143872756056331</v>
+        <v>0.42677359993215724</v>
       </c>
       <c r="Q11" s="96">
-        <v>-0.13844377056285248</v>
+        <v>-0.13265615846410214</v>
       </c>
       <c r="T11" s="129" t="s">
         <v>6</v>
       </c>
       <c r="U11" s="130"/>
       <c r="V11" s="131">
-        <v>0.54229184889211135</v>
+        <v>0.52557298475153791</v>
       </c>
       <c r="W11" s="132">
-        <v>-0.21963044987789551</v>
+        <v>-0.29232628203197447</v>
       </c>
     </row>
     <row r="12">
